--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il7-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il7-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Il2rg</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4454536666666666</v>
+        <v>0.8062</v>
       </c>
       <c r="H2">
-        <v>1.336361</v>
+        <v>2.4186</v>
       </c>
       <c r="I2">
-        <v>0.9325083979842047</v>
+        <v>0.581704519790725</v>
       </c>
       <c r="J2">
-        <v>0.9325083979842046</v>
+        <v>0.5817045197907249</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.365583</v>
+        <v>35.32109533333334</v>
       </c>
       <c r="N2">
-        <v>73.096749</v>
+        <v>105.963286</v>
       </c>
       <c r="O2">
-        <v>0.3097154004536172</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="P2">
-        <v>0.3097154004536173</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="Q2">
-        <v>10.853738287821</v>
+        <v>28.47586705773334</v>
       </c>
       <c r="R2">
-        <v>97.68364459038899</v>
+        <v>256.2828035196</v>
       </c>
       <c r="S2">
-        <v>0.288812211908039</v>
+        <v>0.2398510615856094</v>
       </c>
       <c r="T2">
-        <v>0.2888122119080391</v>
+        <v>0.2398510615856093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4454536666666666</v>
+        <v>0.8062</v>
       </c>
       <c r="H3">
-        <v>1.336361</v>
+        <v>2.4186</v>
       </c>
       <c r="I3">
-        <v>0.9325083979842047</v>
+        <v>0.581704519790725</v>
       </c>
       <c r="J3">
-        <v>0.9325083979842046</v>
+        <v>0.5817045197907249</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.684475</v>
       </c>
       <c r="O3">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="P3">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="Q3">
-        <v>0.5470876328305555</v>
+        <v>0.9901412483333333</v>
       </c>
       <c r="R3">
-        <v>4.923788695474999</v>
+        <v>8.911271235000001</v>
       </c>
       <c r="S3">
-        <v>0.01455771137605411</v>
+        <v>0.008339919169132202</v>
       </c>
       <c r="T3">
-        <v>0.01455771137605411</v>
+        <v>0.008339919169132201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4454536666666666</v>
+        <v>0.8062</v>
       </c>
       <c r="H4">
-        <v>1.336361</v>
+        <v>2.4186</v>
       </c>
       <c r="I4">
-        <v>0.9325083979842047</v>
+        <v>0.581704519790725</v>
       </c>
       <c r="J4">
-        <v>0.9325083979842046</v>
+        <v>0.5817045197907249</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.595688</v>
+        <v>2.583168333333334</v>
       </c>
       <c r="N4">
-        <v>13.787064</v>
+        <v>7.749505</v>
       </c>
       <c r="O4">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="P4">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="Q4">
-        <v>2.047166070456</v>
+        <v>2.082550310333334</v>
       </c>
       <c r="R4">
-        <v>18.424494634104</v>
+        <v>18.742952793</v>
       </c>
       <c r="S4">
-        <v>0.05447400197726573</v>
+        <v>0.01754123594291883</v>
       </c>
       <c r="T4">
-        <v>0.05447400197726572</v>
+        <v>0.01754123594291883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4454536666666666</v>
+        <v>0.8062</v>
       </c>
       <c r="H5">
-        <v>1.336361</v>
+        <v>2.4186</v>
       </c>
       <c r="I5">
-        <v>0.9325083979842047</v>
+        <v>0.581704519790725</v>
       </c>
       <c r="J5">
-        <v>0.9325083979842046</v>
+        <v>0.5817045197907249</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.48145033333333</v>
+        <v>46.53090866666667</v>
       </c>
       <c r="N5">
-        <v>145.444351</v>
+        <v>139.592726</v>
       </c>
       <c r="O5">
-        <v>0.6162566192058891</v>
+        <v>0.5431835104302428</v>
       </c>
       <c r="P5">
-        <v>0.6162566192058893</v>
+        <v>0.5431835104302427</v>
       </c>
       <c r="Q5">
-        <v>21.59623981630122</v>
+        <v>37.51321856706667</v>
       </c>
       <c r="R5">
-        <v>194.366158346711</v>
+        <v>337.6189671036</v>
       </c>
       <c r="S5">
-        <v>0.5746644727228457</v>
+        <v>0.3159723030930647</v>
       </c>
       <c r="T5">
-        <v>0.5746644727228458</v>
+        <v>0.3159723030930646</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.03224033333333334</v>
+        <v>0.4454536666666667</v>
       </c>
       <c r="H6">
-        <v>0.096721</v>
+        <v>1.336361</v>
       </c>
       <c r="I6">
-        <v>0.06749160201579534</v>
+        <v>0.3214120705251191</v>
       </c>
       <c r="J6">
-        <v>0.06749160201579534</v>
+        <v>0.3214120705251191</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.365583</v>
+        <v>35.32109533333334</v>
       </c>
       <c r="N6">
-        <v>73.096749</v>
+        <v>105.963286</v>
       </c>
       <c r="O6">
-        <v>0.3097154004536172</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="P6">
-        <v>0.3097154004536173</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="Q6">
-        <v>0.7855545177810001</v>
+        <v>15.73391142691623</v>
       </c>
       <c r="R6">
-        <v>7.069990660029</v>
+        <v>141.605202842246</v>
       </c>
       <c r="S6">
-        <v>0.02090318854557821</v>
+        <v>0.1325260913386284</v>
       </c>
       <c r="T6">
-        <v>0.02090318854557821</v>
+        <v>0.1325260913386283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.03224033333333334</v>
+        <v>0.4454536666666667</v>
       </c>
       <c r="H7">
-        <v>0.096721</v>
+        <v>1.336361</v>
       </c>
       <c r="I7">
-        <v>0.06749160201579534</v>
+        <v>0.3214120705251191</v>
       </c>
       <c r="J7">
-        <v>0.06749160201579534</v>
+        <v>0.3214120705251191</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>3.684475</v>
       </c>
       <c r="O7">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="P7">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="Q7">
-        <v>0.03959623405277778</v>
+        <v>0.5470876328305555</v>
       </c>
       <c r="R7">
-        <v>0.356366106475</v>
+        <v>4.923788695475</v>
       </c>
       <c r="S7">
-        <v>0.001053634760370386</v>
+        <v>0.004608096717431853</v>
       </c>
       <c r="T7">
-        <v>0.001053634760370387</v>
+        <v>0.004608096717431853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.03224033333333334</v>
+        <v>0.4454536666666667</v>
       </c>
       <c r="H8">
-        <v>0.096721</v>
+        <v>1.336361</v>
       </c>
       <c r="I8">
-        <v>0.06749160201579534</v>
+        <v>0.3214120705251191</v>
       </c>
       <c r="J8">
-        <v>0.06749160201579534</v>
+        <v>0.3214120705251191</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.595688</v>
+        <v>2.583168333333334</v>
       </c>
       <c r="N8">
-        <v>13.787064</v>
+        <v>7.749505</v>
       </c>
       <c r="O8">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="P8">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="Q8">
-        <v>0.148166513016</v>
+        <v>1.150681805700556</v>
       </c>
       <c r="R8">
-        <v>1.333498617144</v>
+        <v>10.356136251305</v>
       </c>
       <c r="S8">
-        <v>0.003942632226803325</v>
+        <v>0.009692145706571963</v>
       </c>
       <c r="T8">
-        <v>0.003942632226803325</v>
+        <v>0.009692145706571962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.03224033333333334</v>
+        <v>0.4454536666666667</v>
       </c>
       <c r="H9">
-        <v>0.096721</v>
+        <v>1.336361</v>
       </c>
       <c r="I9">
-        <v>0.06749160201579534</v>
+        <v>0.3214120705251191</v>
       </c>
       <c r="J9">
-        <v>0.06749160201579534</v>
+        <v>0.3214120705251191</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>48.48145033333333</v>
+        <v>46.53090866666667</v>
       </c>
       <c r="N9">
-        <v>145.444351</v>
+        <v>139.592726</v>
       </c>
       <c r="O9">
-        <v>0.6162566192058891</v>
+        <v>0.5431835104302428</v>
       </c>
       <c r="P9">
-        <v>0.6162566192058893</v>
+        <v>0.5431835104302427</v>
       </c>
       <c r="Q9">
-        <v>1.563058119230111</v>
+        <v>20.72736387889845</v>
       </c>
       <c r="R9">
-        <v>14.067523073071</v>
+        <v>186.546274910086</v>
       </c>
       <c r="S9">
-        <v>0.04159214648304341</v>
+        <v>0.174585736762487</v>
       </c>
       <c r="T9">
-        <v>0.04159214648304341</v>
+        <v>0.174585736762487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1342733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.40282</v>
+      </c>
+      <c r="I10">
+        <v>0.09688340968415604</v>
+      </c>
+      <c r="J10">
+        <v>0.09688340968415604</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>35.32109533333334</v>
+      </c>
+      <c r="N10">
+        <v>105.963286</v>
+      </c>
+      <c r="O10">
+        <v>0.4123245624288747</v>
+      </c>
+      <c r="P10">
+        <v>0.4123245624288747</v>
+      </c>
+      <c r="Q10">
+        <v>4.742681207391112</v>
+      </c>
+      <c r="R10">
+        <v>42.68413086652</v>
+      </c>
+      <c r="S10">
+        <v>0.03994740950463704</v>
+      </c>
+      <c r="T10">
+        <v>0.03994740950463704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1342733333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.40282</v>
+      </c>
+      <c r="I11">
+        <v>0.09688340968415604</v>
+      </c>
+      <c r="J11">
+        <v>0.09688340968415604</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.228158333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.684475</v>
+      </c>
+      <c r="O11">
+        <v>0.01433703690686912</v>
+      </c>
+      <c r="P11">
+        <v>0.01433703690686912</v>
+      </c>
+      <c r="Q11">
+        <v>0.1649089132777778</v>
+      </c>
+      <c r="R11">
+        <v>1.4841802195</v>
+      </c>
+      <c r="S11">
+        <v>0.001389021020305066</v>
+      </c>
+      <c r="T11">
+        <v>0.001389021020305066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1342733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.40282</v>
+      </c>
+      <c r="I12">
+        <v>0.09688340968415604</v>
+      </c>
+      <c r="J12">
+        <v>0.09688340968415604</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.583168333333334</v>
+      </c>
+      <c r="N12">
+        <v>7.749505</v>
+      </c>
+      <c r="O12">
+        <v>0.03015489023401347</v>
+      </c>
+      <c r="P12">
+        <v>0.03015489023401347</v>
+      </c>
+      <c r="Q12">
+        <v>0.3468506226777778</v>
+      </c>
+      <c r="R12">
+        <v>3.1216556041</v>
+      </c>
+      <c r="S12">
+        <v>0.002921508584522683</v>
+      </c>
+      <c r="T12">
+        <v>0.002921508584522683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1342733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.40282</v>
+      </c>
+      <c r="I13">
+        <v>0.09688340968415604</v>
+      </c>
+      <c r="J13">
+        <v>0.09688340968415604</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>46.53090866666667</v>
+      </c>
+      <c r="N13">
+        <v>139.592726</v>
+      </c>
+      <c r="O13">
+        <v>0.5431835104302428</v>
+      </c>
+      <c r="P13">
+        <v>0.5431835104302427</v>
+      </c>
+      <c r="Q13">
+        <v>6.247860209702222</v>
+      </c>
+      <c r="R13">
+        <v>56.23074188731999</v>
+      </c>
+      <c r="S13">
+        <v>0.05262547057469126</v>
+      </c>
+      <c r="T13">
+        <v>0.05262547057469125</v>
       </c>
     </row>
   </sheetData>
